--- a/biology/Médecine/Theodor_Hermann_Meynert/Theodor_Hermann_Meynert.xlsx
+++ b/biology/Médecine/Theodor_Hermann_Meynert/Theodor_Hermann_Meynert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Hermann Meynert est un  médecin psychiatre et neuroanatomiste allemand, né le 15 juin 1833 à Dresde et mort le 31 mai 1892 à Klosterneuburg près de Vienne.
 Né en Allemagne, Theodor Meynert accompagne sa famille lors de son déménagement à Vienne, où son père le journaliste Hermann Günther Meynert deviendra critique de théâtre sous le pseudonyme de Janus. Theodor y suit des études de médecine notamment avec Carl von Rokitansky. Il se tourne rapidement vers la neurologie et la psychiatrie. Titulaire d'une chaire de psychiatrie à partir de 1870, ses travaux sur la neuroanatomie du cerveau contribuent largement au rayonnement scientifique de l'Université de Vienne. Meynert défend une vision du cerveau organisé en différentes aires fonctionnelles connectées les unes aux autres par des faisceaux de substance blanche. Dès 1867, il publie ainsi une classification des troubles mentaux basée sur leurs corollaires anatomo-pathologiques qui divise ses collègues.
@@ -514,7 +526,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Der Bau der Großhirnrinde und seine örtlichen Verschiedenheiten, nebst einem patholoisch-anatomischen Korollarium. Vierteljahrsschrift für Psychiatrie, 1867-1868, 1: 77-93, 126-170, 198-217; 2: 88-113.</t>
         </is>
